--- a/datos/testimonios-soledades.xlsx
+++ b/datos/testimonios-soledades.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antonio/Documents/github/soledades/datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Manuscritos" sheetId="1" r:id="rId1"/>
+    <sheet name="Testimonios" sheetId="1" r:id="rId1"/>
     <sheet name="Impresos" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -444,6 +452,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -778,7 +791,7 @@
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -789,7 +802,7 @@
     <col min="8" max="8" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -815,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -841,7 +854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -867,7 +880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -893,7 +906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -919,7 +932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -945,7 +958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -971,7 +984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -995,7 +1008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
@@ -1021,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -1047,7 +1060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
@@ -1145,7 +1158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1195,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
@@ -1221,7 +1234,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>94</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>99</v>
       </c>
@@ -1270,7 +1283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>104</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
@@ -1319,7 +1332,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>111</v>
       </c>
@@ -1345,7 +1358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>112</v>
       </c>
@@ -1382,11 +1395,6 @@
     <hyperlink ref="H21" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1399,7 +1407,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
@@ -1409,7 +1417,7 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1469,7 +1477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -1509,7 +1517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1531,10 +1539,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>